--- a/Excel-worksheets/Lecture11_RNN_Sentiment.xlsx
+++ b/Excel-worksheets/Lecture11_RNN_Sentiment.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -33,8 +33,13 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <i val="1"/>
+      <color rgb="00505050"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill/>
     </fill>
@@ -101,6 +106,12 @@
         <bgColor rgb="00CCFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F0F8FF"/>
+        <bgColor rgb="00F0F8FF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -148,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -217,6 +228,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:Z16"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,12 +628,43 @@
     <col width="7" customWidth="1" min="21" max="21"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="25" t="inlineStr">
+        <is>
+          <t>[Description] RNN for sentiment analysis - classify text sequences (e.g., movie reviews) as positive or negative.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
         <is>
           <t>RNN for Sentiment Analysis (Text Classification)</t>
         </is>
       </c>
+      <c r="C2" s="17" t="n"/>
+      <c r="D2" s="17" t="n"/>
+      <c r="E2" s="17" t="n"/>
+      <c r="F2" s="17" t="n"/>
+      <c r="G2" s="17" t="n"/>
+      <c r="H2" s="17" t="n"/>
+      <c r="I2" s="17" t="n"/>
+      <c r="J2" s="17" t="n"/>
+      <c r="K2" s="17" t="n"/>
+      <c r="L2" s="17" t="n"/>
+      <c r="M2" s="17" t="n"/>
+      <c r="N2" s="17" t="n"/>
+      <c r="O2" s="17" t="n"/>
+      <c r="P2" s="17" t="n"/>
+      <c r="Q2" s="17" t="n"/>
+      <c r="R2" s="17" t="n"/>
+      <c r="S2" s="17" t="n"/>
+      <c r="T2" s="17" t="n"/>
+      <c r="U2" s="17" t="n"/>
+      <c r="V2" s="17" t="n"/>
+      <c r="W2" s="17" t="n"/>
+      <c r="X2" s="17" t="n"/>
+      <c r="Y2" s="17" t="n"/>
+      <c r="Z2" s="18" t="n"/>
     </row>
     <row r="4">
       <c r="B4" s="1" t="inlineStr">
@@ -627,6 +672,30 @@
           <t>Words → Word Embedding(4D) → RNN Hidden(3, tanh) → Output(1, Sigmoid) → BCE Loss</t>
         </is>
       </c>
+      <c r="C4" s="17" t="n"/>
+      <c r="D4" s="17" t="n"/>
+      <c r="E4" s="17" t="n"/>
+      <c r="F4" s="17" t="n"/>
+      <c r="G4" s="17" t="n"/>
+      <c r="H4" s="17" t="n"/>
+      <c r="I4" s="17" t="n"/>
+      <c r="J4" s="17" t="n"/>
+      <c r="K4" s="17" t="n"/>
+      <c r="L4" s="17" t="n"/>
+      <c r="M4" s="17" t="n"/>
+      <c r="N4" s="17" t="n"/>
+      <c r="O4" s="17" t="n"/>
+      <c r="P4" s="17" t="n"/>
+      <c r="Q4" s="17" t="n"/>
+      <c r="R4" s="17" t="n"/>
+      <c r="S4" s="17" t="n"/>
+      <c r="T4" s="17" t="n"/>
+      <c r="U4" s="17" t="n"/>
+      <c r="V4" s="17" t="n"/>
+      <c r="W4" s="17" t="n"/>
+      <c r="X4" s="17" t="n"/>
+      <c r="Y4" s="17" t="n"/>
+      <c r="Z4" s="18" t="n"/>
     </row>
     <row r="7">
       <c r="B7" s="1" t="inlineStr">
@@ -751,7 +820,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:Z2"/>
     <mergeCell ref="B4:Z4"/>
   </mergeCells>
@@ -765,7 +835,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:T36"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,12 +858,37 @@
     <col width="8" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="25" t="inlineStr">
+        <is>
+          <t>[Description] Word embeddings: Convert discrete word tokens into dense continuous vectors that capture semantic meaning.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Step 1: Word Embedding (Vocabulary → 4D Vectors)</t>
         </is>
       </c>
+      <c r="C2" s="17" t="n"/>
+      <c r="D2" s="17" t="n"/>
+      <c r="E2" s="17" t="n"/>
+      <c r="F2" s="17" t="n"/>
+      <c r="G2" s="17" t="n"/>
+      <c r="H2" s="17" t="n"/>
+      <c r="I2" s="17" t="n"/>
+      <c r="J2" s="17" t="n"/>
+      <c r="K2" s="17" t="n"/>
+      <c r="L2" s="17" t="n"/>
+      <c r="M2" s="17" t="n"/>
+      <c r="N2" s="17" t="n"/>
+      <c r="O2" s="17" t="n"/>
+      <c r="P2" s="17" t="n"/>
+      <c r="Q2" s="17" t="n"/>
+      <c r="R2" s="17" t="n"/>
+      <c r="S2" s="17" t="n"/>
+      <c r="T2" s="18" t="n"/>
     </row>
     <row r="5">
       <c r="B5" s="1" t="inlineStr">
@@ -1315,7 +1410,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:T2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1328,7 +1424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:R23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1349,12 +1445,35 @@
     <col width="8" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="25" t="inlineStr">
+        <is>
+          <t>[Description] RNN parameters: Embedding matrix, input-to-hidden weights, hidden-to-hidden weights, output weights.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
         <is>
           <t>RNN Parameters</t>
         </is>
       </c>
+      <c r="C2" s="17" t="n"/>
+      <c r="D2" s="17" t="n"/>
+      <c r="E2" s="17" t="n"/>
+      <c r="F2" s="17" t="n"/>
+      <c r="G2" s="17" t="n"/>
+      <c r="H2" s="17" t="n"/>
+      <c r="I2" s="17" t="n"/>
+      <c r="J2" s="17" t="n"/>
+      <c r="K2" s="17" t="n"/>
+      <c r="L2" s="17" t="n"/>
+      <c r="M2" s="17" t="n"/>
+      <c r="N2" s="17" t="n"/>
+      <c r="O2" s="17" t="n"/>
+      <c r="P2" s="17" t="n"/>
+      <c r="Q2" s="17" t="n"/>
+      <c r="R2" s="18" t="n"/>
     </row>
     <row r="5">
       <c r="B5" s="2" t="inlineStr">
@@ -1507,8 +1626,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:R2"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1520,7 +1640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:AH417"/>
+  <dimension ref="A1:AH417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1551,12 +1671,51 @@
     <col width="9" customWidth="1" min="21" max="21"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="25" t="inlineStr">
+        <is>
+          <t>[Description] Process each word sequentially, updating hidden state. Final hidden state summarizes the entire sequence.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="4" t="inlineStr">
         <is>
           <t>Step 2: RNN Forward Propagation (Detailed Calculations)</t>
         </is>
       </c>
+      <c r="C2" s="17" t="n"/>
+      <c r="D2" s="17" t="n"/>
+      <c r="E2" s="17" t="n"/>
+      <c r="F2" s="17" t="n"/>
+      <c r="G2" s="17" t="n"/>
+      <c r="H2" s="17" t="n"/>
+      <c r="I2" s="17" t="n"/>
+      <c r="J2" s="17" t="n"/>
+      <c r="K2" s="17" t="n"/>
+      <c r="L2" s="17" t="n"/>
+      <c r="M2" s="17" t="n"/>
+      <c r="N2" s="17" t="n"/>
+      <c r="O2" s="17" t="n"/>
+      <c r="P2" s="17" t="n"/>
+      <c r="Q2" s="17" t="n"/>
+      <c r="R2" s="17" t="n"/>
+      <c r="S2" s="17" t="n"/>
+      <c r="T2" s="17" t="n"/>
+      <c r="U2" s="17" t="n"/>
+      <c r="V2" s="17" t="n"/>
+      <c r="W2" s="17" t="n"/>
+      <c r="X2" s="17" t="n"/>
+      <c r="Y2" s="17" t="n"/>
+      <c r="Z2" s="17" t="n"/>
+      <c r="AA2" s="17" t="n"/>
+      <c r="AB2" s="17" t="n"/>
+      <c r="AC2" s="17" t="n"/>
+      <c r="AD2" s="17" t="n"/>
+      <c r="AE2" s="17" t="n"/>
+      <c r="AF2" s="17" t="n"/>
+      <c r="AG2" s="17" t="n"/>
+      <c r="AH2" s="18" t="n"/>
     </row>
     <row r="4">
       <c r="B4" s="1" t="inlineStr">
@@ -6574,10 +6733,11 @@
       <c r="AH417" s="18" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="B105:L105"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B143:L143"/>
     <mergeCell ref="B27:AH27"/>
-    <mergeCell ref="B143:L143"/>
     <mergeCell ref="B281:L281"/>
     <mergeCell ref="B319:L319"/>
     <mergeCell ref="B219:L219"/>
@@ -6602,7 +6762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:AE30"/>
+  <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6635,12 +6795,48 @@
     <col width="6" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="25" t="inlineStr">
+        <is>
+          <t>[Description] Backpropagation through time (BPTT): Unroll RNN and compute gradients from output back to each time step.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="7" t="inlineStr">
         <is>
           <t>Step 3: Backward Propagation (BPTT) - Original → Gradient → Updated</t>
         </is>
       </c>
+      <c r="C2" s="17" t="n"/>
+      <c r="D2" s="17" t="n"/>
+      <c r="E2" s="17" t="n"/>
+      <c r="F2" s="17" t="n"/>
+      <c r="G2" s="17" t="n"/>
+      <c r="H2" s="17" t="n"/>
+      <c r="I2" s="17" t="n"/>
+      <c r="J2" s="17" t="n"/>
+      <c r="K2" s="17" t="n"/>
+      <c r="L2" s="17" t="n"/>
+      <c r="M2" s="17" t="n"/>
+      <c r="N2" s="17" t="n"/>
+      <c r="O2" s="17" t="n"/>
+      <c r="P2" s="17" t="n"/>
+      <c r="Q2" s="17" t="n"/>
+      <c r="R2" s="17" t="n"/>
+      <c r="S2" s="17" t="n"/>
+      <c r="T2" s="17" t="n"/>
+      <c r="U2" s="17" t="n"/>
+      <c r="V2" s="17" t="n"/>
+      <c r="W2" s="17" t="n"/>
+      <c r="X2" s="17" t="n"/>
+      <c r="Y2" s="17" t="n"/>
+      <c r="Z2" s="17" t="n"/>
+      <c r="AA2" s="17" t="n"/>
+      <c r="AB2" s="17" t="n"/>
+      <c r="AC2" s="17" t="n"/>
+      <c r="AD2" s="17" t="n"/>
+      <c r="AE2" s="18" t="n"/>
     </row>
     <row r="5">
       <c r="B5" s="7" t="inlineStr">
@@ -7156,11 +7352,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:AE2"/>
+    <mergeCell ref="B5:AE5"/>
     <mergeCell ref="B22:AE22"/>
-    <mergeCell ref="B2:AE2"/>
     <mergeCell ref="B14:AE14"/>
-    <mergeCell ref="B5:AE5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7172,7 +7369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:B21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7196,6 +7393,13 @@
     <col width="12" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="25" t="inlineStr">
+        <is>
+          <t>[Description] Reference solutions for self-checking your calculations.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="1">
         <f>== Answer Key ===</f>
@@ -7315,6 +7519,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>